--- a/migration/[Dream Con] Argument Mastersheet.xlsx
+++ b/migration/[Dream Con] Argument Mastersheet.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="1028">
   <si>
     <t>ArgumentId</t>
   </si>
@@ -587,7 +587,7 @@
     <t>ให้มีการให้ความรู้กับประชาชนทั่วไปก่อนการแก้กฎหมายใดๆ อย่างไม่เหลื่อมล้ำ ด้วยวิธีการเช่นการเสวนา</t>
   </si>
   <si>
-    <t>กฎหมาย</t>
+    <t>อื่น ๆ</t>
   </si>
   <si>
     <t>A88</t>
@@ -605,7 +605,7 @@
     <t>ควรแก้ไขโครงสร้างอำนาจ ลดระดับอำนาจของส่วนกลาง</t>
   </si>
   <si>
-    <t>กระจายอำนาจ</t>
+    <t>การปกครองส่วนท้องถิ่น</t>
   </si>
   <si>
     <t>A90</t>
@@ -614,7 +614,7 @@
     <t>ควรมองคนในสังคมเป็นมนุษย์เหมือนกับเรา</t>
   </si>
   <si>
-    <t>ความเท่าเทียม</t>
+    <t>สิทธิเสรีภาพ</t>
   </si>
   <si>
     <t>A91</t>
@@ -623,9 +623,6 @@
     <t>ต้องมีพื้นที่ปลอดภัยสำหรับการแสดงความคิดเห็น เพื่อนำไปสู่การเปลี่ยนแปลง คุ้มครองผู้เห็นต่าง วิพากษ์วิจารณ์กันได้</t>
   </si>
   <si>
-    <t>เสรีภาพ</t>
-  </si>
-  <si>
     <t>A92</t>
   </si>
   <si>
@@ -647,9 +644,6 @@
     <t>เงินต้องไม่สามารถเปลี่ยนความผิดให้กลายเป็นความถูกต้องได้</t>
   </si>
   <si>
-    <t>กระบวนการยุติธรรม</t>
-  </si>
-  <si>
     <t>A95</t>
   </si>
   <si>
@@ -662,9 +656,6 @@
     <t>ต้องมีหน่วยงานตรวจสอบรัฐบาลที่โปร่งใส</t>
   </si>
   <si>
-    <t>การตรวจสอบ</t>
-  </si>
-  <si>
     <t>A97</t>
   </si>
   <si>
@@ -689,9 +680,6 @@
     <t xml:space="preserve">ต้องมีการพัฒนาขนส่งสาธารณะ ลดการใช้รถส่วนตัว </t>
   </si>
   <si>
-    <t>คมนาคม</t>
-  </si>
-  <si>
     <t>A101</t>
   </si>
   <si>
@@ -728,9 +716,6 @@
     <t>ต้องมีการพัฒนาเทคโนโลยีและวิทยาศาสตร์ รวมทั้งทางการเกษตรให้ประเทศมีรายได้</t>
   </si>
   <si>
-    <t>เทคโนโลยี</t>
-  </si>
-  <si>
     <t>A107</t>
   </si>
   <si>
@@ -786,9 +771,6 @@
   </si>
   <si>
     <t>ต้องมีการสนับสนุนภาคการเกษตร</t>
-  </si>
-  <si>
-    <t>การเกษตร</t>
   </si>
   <si>
     <t>CommentId</t>
@@ -4616,18 +4598,12 @@
       <sharedItems containsBlank="1">
         <s v="สสร."/>
         <s v="สิ่งแวดล้อม"/>
-        <s v="กฎหมาย"/>
+        <s v="อื่น ๆ"/>
         <s v="การศึกษา"/>
-        <s v="กระจายอำนาจ"/>
-        <s v="ความเท่าเทียม"/>
-        <s v="เสรีภาพ"/>
+        <s v="การปกครองส่วนท้องถิ่น"/>
+        <s v="สิทธิเสรีภาพ"/>
         <s v="สวัสดิการ"/>
-        <s v="กระบวนการยุติธรรม"/>
-        <s v="การตรวจสอบ"/>
-        <s v="คมนาคม"/>
-        <s v="เทคโนโลยี"/>
         <s v="รัฐสภา"/>
-        <s v="การเกษตร"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -5641,7 +5617,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivot Table 1 2" cacheId="1" dataCaption="" compact="0" compactData="0">
-  <location ref="H1:J20" firstHeaderRow="0" firstDataRow="2" firstDataCol="0"/>
+  <location ref="H1:J14" firstHeaderRow="0" firstDataRow="2" firstDataCol="0"/>
   <pivotFields>
     <pivotField name="ArgumentId" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
@@ -5903,21 +5879,15 @@
     </pivotField>
     <pivotField name="Tag" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items>
-        <item x="14"/>
-        <item x="2"/>
+        <item x="8"/>
         <item x="4"/>
-        <item x="8"/>
-        <item x="13"/>
-        <item x="9"/>
         <item x="3"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item x="12"/>
         <item x="7"/>
+        <item x="6"/>
         <item x="0"/>
         <item x="1"/>
-        <item x="6"/>
+        <item x="5"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7793,15 +7763,15 @@
         <v>E2</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>179</v>
@@ -7811,15 +7781,15 @@
         <v>E2</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>179</v>
@@ -7834,10 +7804,10 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>179</v>
@@ -7847,15 +7817,15 @@
         <v>E2</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>179</v>
@@ -7865,15 +7835,15 @@
         <v>E2</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>179</v>
@@ -7883,15 +7853,15 @@
         <v>E2</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>179</v>
@@ -7906,10 +7876,10 @@
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>179</v>
@@ -7924,10 +7894,10 @@
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>179</v>
@@ -7942,10 +7912,10 @@
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>179</v>
@@ -7955,15 +7925,15 @@
         <v>E2</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>179</v>
@@ -7978,10 +7948,10 @@
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>179</v>
@@ -7991,15 +7961,15 @@
         <v>E2</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>179</v>
@@ -8009,15 +7979,15 @@
         <v>E2</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>179</v>
@@ -8032,10 +8002,10 @@
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>179</v>
@@ -8045,15 +8015,15 @@
         <v>E2</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>179</v>
@@ -8063,15 +8033,15 @@
         <v>E2</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>179</v>
@@ -8086,10 +8056,10 @@
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>179</v>
@@ -8104,10 +8074,10 @@
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>179</v>
@@ -8117,15 +8087,15 @@
         <v>E2</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>179</v>
@@ -8140,10 +8110,10 @@
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>179</v>
@@ -8153,15 +8123,15 @@
         <v>E2</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>179</v>
@@ -8171,15 +8141,15 @@
         <v>E2</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>179</v>
@@ -8194,10 +8164,10 @@
     </row>
     <row r="115">
       <c r="A115" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>179</v>
@@ -8207,15 +8177,15 @@
         <v>E2</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>179</v>
@@ -8225,7 +8195,7 @@
         <v>E2</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117">
@@ -14436,19 +14406,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>1</v>
@@ -14462,13 +14432,13 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="10" t="str">
@@ -14488,13 +14458,13 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="10" t="str">
@@ -14514,13 +14484,13 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="10" t="str">
@@ -14540,16 +14510,16 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E5" s="10" t="str">
         <f t="shared" si="1"/>
@@ -14568,16 +14538,16 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="E6" s="10" t="str">
         <f t="shared" si="1"/>
@@ -14596,13 +14566,13 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="10" t="str">
@@ -14622,13 +14592,13 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="10" t="str">
@@ -14648,13 +14618,13 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="10" t="str">
@@ -14674,13 +14644,13 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="10" t="str">
@@ -14700,13 +14670,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="10" t="str">
@@ -14726,16 +14696,16 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E12" s="10" t="str">
         <f t="shared" si="1"/>
@@ -14754,16 +14724,16 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E13" s="10" t="str">
         <f t="shared" si="1"/>
@@ -14782,13 +14752,13 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="10" t="str">
@@ -14808,13 +14778,13 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="10" t="str">
@@ -14834,16 +14804,16 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E16" s="10" t="str">
         <f t="shared" si="1"/>
@@ -14862,13 +14832,13 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="10" t="str">
@@ -14888,13 +14858,13 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="10" t="str">
@@ -14914,13 +14884,13 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="10" t="str">
@@ -14940,13 +14910,13 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="10" t="str">
@@ -14966,13 +14936,13 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="10" t="str">
@@ -14992,13 +14962,13 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="10" t="str">
@@ -15018,13 +14988,13 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="10" t="str">
@@ -15044,16 +15014,16 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E24" s="10" t="str">
         <f t="shared" si="1"/>
@@ -15072,16 +15042,16 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E25" s="10" t="str">
         <f t="shared" si="1"/>
@@ -15100,13 +15070,13 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="10" t="str">
@@ -15126,13 +15096,13 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="10" t="str">
@@ -15152,13 +15122,13 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="10" t="str">
@@ -15178,13 +15148,13 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="10" t="str">
@@ -15204,13 +15174,13 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="10" t="str">
@@ -15230,13 +15200,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="10" t="str">
@@ -15256,13 +15226,13 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="10" t="str">
@@ -15282,13 +15252,13 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="10" t="str">
@@ -15308,13 +15278,13 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="10" t="str">
@@ -15334,13 +15304,13 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="10" t="str">
@@ -15360,13 +15330,13 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="10" t="str">
@@ -15386,13 +15356,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="10" t="str">
@@ -15412,13 +15382,13 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="10" t="str">
@@ -15438,13 +15408,13 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="10" t="str">
@@ -15464,13 +15434,13 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="10" t="str">
@@ -15490,13 +15460,13 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="10" t="str">
@@ -15516,13 +15486,13 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="10" t="str">
@@ -15542,13 +15512,13 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="10" t="str">
@@ -15568,13 +15538,13 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="10" t="str">
@@ -15594,13 +15564,13 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="10" t="str">
@@ -15620,13 +15590,13 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="10" t="str">
@@ -15646,13 +15616,13 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="10" t="str">
@@ -15672,13 +15642,13 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="10" t="str">
@@ -15698,16 +15668,16 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E49" s="10" t="str">
         <f t="shared" si="1"/>
@@ -15726,13 +15696,13 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="10" t="str">
@@ -15752,13 +15722,13 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="10" t="str">
@@ -15778,13 +15748,13 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="10" t="str">
@@ -15804,13 +15774,13 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="10" t="str">
@@ -15830,16 +15800,16 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E54" s="10" t="str">
         <f t="shared" si="1"/>
@@ -15858,13 +15828,13 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="10" t="str">
@@ -15884,13 +15854,13 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="10" t="str">
@@ -15910,16 +15880,16 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E57" s="10" t="str">
         <f t="shared" si="1"/>
@@ -15938,13 +15908,13 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="10" t="str">
@@ -15964,13 +15934,13 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="10" t="str">
@@ -15990,16 +15960,16 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E60" s="10" t="str">
         <f t="shared" si="1"/>
@@ -16018,13 +15988,13 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="10" t="str">
@@ -16044,13 +16014,13 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="10" t="str">
@@ -16070,13 +16040,13 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="10" t="str">
@@ -16096,16 +16066,16 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E64" s="10" t="str">
         <f t="shared" si="1"/>
@@ -16124,13 +16094,13 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="10" t="str">
@@ -16150,13 +16120,13 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="10" t="str">
@@ -16176,13 +16146,13 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="10" t="str">
@@ -16202,13 +16172,13 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="10" t="str">
@@ -16228,13 +16198,13 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="10" t="str">
@@ -16254,13 +16224,13 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="10" t="str">
@@ -16280,13 +16250,13 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="10" t="str">
@@ -16306,13 +16276,13 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="10" t="str">
@@ -16332,13 +16302,13 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="10" t="str">
@@ -16358,13 +16328,13 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="10" t="str">
@@ -16384,13 +16354,13 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="10" t="str">
@@ -16410,13 +16380,13 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="10" t="str">
@@ -16436,13 +16406,13 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="10" t="str">
@@ -16462,13 +16432,13 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="10" t="str">
@@ -16488,13 +16458,13 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="10" t="str">
@@ -16514,13 +16484,13 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="10" t="str">
@@ -16540,16 +16510,16 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E81" s="10" t="str">
         <f t="shared" si="1"/>
@@ -16568,13 +16538,13 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="10" t="str">
@@ -16594,13 +16564,13 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="10" t="str">
@@ -16620,13 +16590,13 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="10" t="str">
@@ -16646,13 +16616,13 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="10" t="str">
@@ -16672,13 +16642,13 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="10" t="str">
@@ -16698,16 +16668,16 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E87" s="10" t="str">
         <f t="shared" si="1"/>
@@ -16726,13 +16696,13 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="10" t="str">
@@ -16752,13 +16722,13 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="10" t="str">
@@ -16778,16 +16748,16 @@
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E90" s="10" t="str">
         <f t="shared" si="1"/>
@@ -16806,13 +16776,13 @@
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="10" t="str">
@@ -16832,13 +16802,13 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="10" t="str">
@@ -16858,13 +16828,13 @@
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="10" t="str">
@@ -16884,13 +16854,13 @@
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="10" t="str">
@@ -16910,13 +16880,13 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="10" t="str">
@@ -16936,13 +16906,13 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="10" t="str">
@@ -16962,13 +16932,13 @@
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="10" t="str">
@@ -16988,13 +16958,13 @@
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="10" t="str">
@@ -17014,13 +16984,13 @@
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="10" t="str">
@@ -17040,13 +17010,13 @@
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="10" t="str">
@@ -17066,13 +17036,13 @@
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="10" t="str">
@@ -17092,13 +17062,13 @@
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="10" t="str">
@@ -17118,13 +17088,13 @@
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="10" t="str">
@@ -17144,16 +17114,16 @@
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E104" s="10" t="str">
         <f t="shared" si="1"/>
@@ -17172,13 +17142,13 @@
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="10" t="str">
@@ -17198,13 +17168,13 @@
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="10" t="str">
@@ -17224,13 +17194,13 @@
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="10" t="str">
@@ -17250,13 +17220,13 @@
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="10" t="str">
@@ -17276,13 +17246,13 @@
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="10" t="str">
@@ -17302,13 +17272,13 @@
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="10" t="str">
@@ -17328,13 +17298,13 @@
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="10" t="str">
@@ -17354,13 +17324,13 @@
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="10" t="str">
@@ -17380,13 +17350,13 @@
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="10" t="str">
@@ -17406,13 +17376,13 @@
     </row>
     <row r="114">
       <c r="A114" s="3" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="10" t="str">
@@ -17432,13 +17402,13 @@
     </row>
     <row r="115">
       <c r="A115" s="3" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="10" t="str">
@@ -17458,13 +17428,13 @@
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="10" t="str">
@@ -17484,13 +17454,13 @@
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="10" t="str">
@@ -17510,13 +17480,13 @@
     </row>
     <row r="118">
       <c r="A118" s="3" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="10" t="str">
@@ -17536,13 +17506,13 @@
     </row>
     <row r="119">
       <c r="A119" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="10" t="str">
@@ -17562,13 +17532,13 @@
     </row>
     <row r="120">
       <c r="A120" s="3" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="10" t="str">
@@ -17588,13 +17558,13 @@
     </row>
     <row r="121">
       <c r="A121" s="3" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="10" t="str">
@@ -17614,13 +17584,13 @@
     </row>
     <row r="122">
       <c r="A122" s="3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="10" t="str">
@@ -17640,13 +17610,13 @@
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="10" t="str">
@@ -17666,13 +17636,13 @@
     </row>
     <row r="124">
       <c r="A124" s="3" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="10" t="str">
@@ -17692,13 +17662,13 @@
     </row>
     <row r="125">
       <c r="A125" s="3" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="10" t="str">
@@ -17718,13 +17688,13 @@
     </row>
     <row r="126">
       <c r="A126" s="3" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="10" t="str">
@@ -17744,13 +17714,13 @@
     </row>
     <row r="127">
       <c r="A127" s="3" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="10" t="str">
@@ -17770,13 +17740,13 @@
     </row>
     <row r="128">
       <c r="A128" s="3" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="10" t="str">
@@ -17796,13 +17766,13 @@
     </row>
     <row r="129">
       <c r="A129" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="10" t="str">
@@ -17822,13 +17792,13 @@
     </row>
     <row r="130">
       <c r="A130" s="3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="10" t="str">
@@ -17848,13 +17818,13 @@
     </row>
     <row r="131">
       <c r="A131" s="3" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="10" t="str">
@@ -17874,13 +17844,13 @@
     </row>
     <row r="132">
       <c r="A132" s="3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="10" t="str">
@@ -17900,13 +17870,13 @@
     </row>
     <row r="133">
       <c r="A133" s="3" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="10" t="str">
@@ -17926,13 +17896,13 @@
     </row>
     <row r="134">
       <c r="A134" s="3" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="10" t="str">
@@ -17952,13 +17922,13 @@
     </row>
     <row r="135">
       <c r="A135" s="3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="10" t="str">
@@ -17978,13 +17948,13 @@
     </row>
     <row r="136">
       <c r="A136" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="10" t="str">
@@ -18004,16 +17974,16 @@
     </row>
     <row r="137">
       <c r="A137" s="3" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E137" s="10" t="str">
         <f t="shared" si="1"/>
@@ -18032,13 +18002,13 @@
     </row>
     <row r="138">
       <c r="A138" s="3" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="10" t="str">
@@ -18058,13 +18028,13 @@
     </row>
     <row r="139">
       <c r="A139" s="3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="10" t="str">
@@ -18084,16 +18054,16 @@
     </row>
     <row r="140">
       <c r="A140" s="3" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E140" s="10" t="str">
         <f t="shared" si="1"/>
@@ -18112,16 +18082,16 @@
     </row>
     <row r="141">
       <c r="A141" s="3" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E141" s="10" t="str">
         <f t="shared" si="1"/>
@@ -18140,13 +18110,13 @@
     </row>
     <row r="142">
       <c r="A142" s="3" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="10" t="str">
@@ -18166,16 +18136,16 @@
     </row>
     <row r="143">
       <c r="A143" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E143" s="10" t="str">
         <f t="shared" si="1"/>
@@ -18194,16 +18164,16 @@
     </row>
     <row r="144">
       <c r="A144" s="3" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E144" s="10" t="str">
         <f t="shared" si="1"/>
@@ -18222,16 +18192,16 @@
     </row>
     <row r="145">
       <c r="A145" s="3" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E145" s="10" t="str">
         <f t="shared" si="1"/>
@@ -18250,16 +18220,16 @@
     </row>
     <row r="146">
       <c r="A146" s="3" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E146" s="10" t="str">
         <f t="shared" si="1"/>
@@ -18278,16 +18248,16 @@
     </row>
     <row r="147">
       <c r="A147" s="3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E147" s="10" t="str">
         <f t="shared" si="1"/>
@@ -18306,13 +18276,13 @@
     </row>
     <row r="148">
       <c r="A148" s="3" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="10" t="str">
@@ -18332,16 +18302,16 @@
     </row>
     <row r="149">
       <c r="A149" s="3" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E149" s="10" t="str">
         <f t="shared" si="1"/>
@@ -18360,13 +18330,13 @@
     </row>
     <row r="150">
       <c r="A150" s="3" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="10" t="str">
@@ -18386,13 +18356,13 @@
     </row>
     <row r="151">
       <c r="A151" s="3" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="10" t="str">
@@ -18412,13 +18382,13 @@
     </row>
     <row r="152">
       <c r="A152" s="3" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="10" t="str">
@@ -18438,16 +18408,16 @@
     </row>
     <row r="153">
       <c r="A153" s="3" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E153" s="10" t="str">
         <f t="shared" si="1"/>
@@ -18466,13 +18436,13 @@
     </row>
     <row r="154">
       <c r="A154" s="3" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="10" t="str">
@@ -18492,16 +18462,16 @@
     </row>
     <row r="155">
       <c r="A155" s="3" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E155" s="10" t="str">
         <f t="shared" si="1"/>
@@ -18520,13 +18490,13 @@
     </row>
     <row r="156">
       <c r="A156" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="10" t="str">
@@ -18546,16 +18516,16 @@
     </row>
     <row r="157">
       <c r="A157" s="3" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E157" s="10" t="str">
         <f t="shared" si="1"/>
@@ -18574,13 +18544,13 @@
     </row>
     <row r="158">
       <c r="A158" s="3" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="10" t="str">
@@ -18600,16 +18570,16 @@
     </row>
     <row r="159">
       <c r="A159" s="3" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E159" s="10" t="str">
         <f t="shared" si="1"/>
@@ -18628,13 +18598,13 @@
     </row>
     <row r="160">
       <c r="A160" s="3" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="10" t="str">
@@ -18654,16 +18624,16 @@
     </row>
     <row r="161">
       <c r="A161" s="3" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E161" s="10" t="str">
         <f t="shared" si="1"/>
@@ -18682,13 +18652,13 @@
     </row>
     <row r="162">
       <c r="A162" s="3" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="10" t="str">
@@ -18708,13 +18678,13 @@
     </row>
     <row r="163">
       <c r="A163" s="3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="10" t="str">
@@ -18734,13 +18704,13 @@
     </row>
     <row r="164">
       <c r="A164" s="3" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="10" t="str">
@@ -18760,16 +18730,16 @@
     </row>
     <row r="165">
       <c r="A165" s="3" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E165" s="10" t="str">
         <f t="shared" si="1"/>
@@ -18788,16 +18758,16 @@
     </row>
     <row r="166">
       <c r="A166" s="3" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E166" s="10" t="str">
         <f t="shared" si="1"/>
@@ -18816,13 +18786,13 @@
     </row>
     <row r="167">
       <c r="A167" s="3" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="10" t="str">
@@ -18842,13 +18812,13 @@
     </row>
     <row r="168">
       <c r="A168" s="3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="10" t="str">
@@ -18868,16 +18838,16 @@
     </row>
     <row r="169">
       <c r="A169" s="3" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E169" s="10" t="str">
         <f t="shared" si="1"/>
@@ -18896,16 +18866,16 @@
     </row>
     <row r="170">
       <c r="A170" s="3" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E170" s="10" t="str">
         <f t="shared" si="1"/>
@@ -18924,13 +18894,13 @@
     </row>
     <row r="171">
       <c r="A171" s="3" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="10" t="str">
@@ -18950,13 +18920,13 @@
     </row>
     <row r="172">
       <c r="A172" s="3" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="10" t="str">
@@ -18976,16 +18946,16 @@
     </row>
     <row r="173">
       <c r="A173" s="3" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E173" s="10" t="str">
         <f t="shared" si="1"/>
@@ -19004,13 +18974,13 @@
     </row>
     <row r="174">
       <c r="A174" s="3" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D174" s="4"/>
       <c r="E174" s="10" t="str">
@@ -19030,13 +19000,13 @@
     </row>
     <row r="175">
       <c r="A175" s="3" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="10" t="str">
@@ -19056,13 +19026,13 @@
     </row>
     <row r="176">
       <c r="A176" s="3" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="10" t="str">
@@ -19082,13 +19052,13 @@
     </row>
     <row r="177">
       <c r="A177" s="3" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="10" t="str">
@@ -19108,16 +19078,16 @@
     </row>
     <row r="178">
       <c r="A178" s="3" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E178" s="10" t="str">
         <f t="shared" si="1"/>
@@ -19136,13 +19106,13 @@
     </row>
     <row r="179">
       <c r="A179" s="3" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="10" t="str">
@@ -19162,13 +19132,13 @@
     </row>
     <row r="180">
       <c r="A180" s="3" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="10" t="str">
@@ -19188,13 +19158,13 @@
     </row>
     <row r="181">
       <c r="A181" s="3" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="10" t="str">
@@ -19214,16 +19184,16 @@
     </row>
     <row r="182">
       <c r="A182" s="3" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E182" s="10" t="str">
         <f t="shared" si="1"/>
@@ -19242,16 +19212,16 @@
     </row>
     <row r="183">
       <c r="A183" s="3" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E183" s="10" t="str">
         <f t="shared" si="1"/>
@@ -19270,13 +19240,13 @@
     </row>
     <row r="184">
       <c r="A184" s="3" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="10" t="str">
@@ -19296,13 +19266,13 @@
     </row>
     <row r="185">
       <c r="A185" s="3" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="10" t="str">
@@ -19322,13 +19292,13 @@
     </row>
     <row r="186">
       <c r="A186" s="3" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D186" s="4"/>
       <c r="E186" s="10" t="str">
@@ -19348,16 +19318,16 @@
     </row>
     <row r="187">
       <c r="A187" s="3" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E187" s="10" t="str">
         <f t="shared" si="1"/>
@@ -19376,16 +19346,16 @@
     </row>
     <row r="188">
       <c r="A188" s="3" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E188" s="10" t="str">
         <f t="shared" si="1"/>
@@ -19404,16 +19374,16 @@
     </row>
     <row r="189">
       <c r="A189" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E189" s="10" t="str">
         <f t="shared" si="1"/>
@@ -19432,13 +19402,13 @@
     </row>
     <row r="190">
       <c r="A190" s="3" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="10" t="str">
@@ -19458,13 +19428,13 @@
     </row>
     <row r="191">
       <c r="A191" s="3" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="10" t="str">
@@ -19484,13 +19454,13 @@
     </row>
     <row r="192">
       <c r="A192" s="3" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="10" t="str">
@@ -19510,16 +19480,16 @@
     </row>
     <row r="193">
       <c r="A193" s="3" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E193" s="10" t="str">
         <f t="shared" si="1"/>
@@ -19538,16 +19508,16 @@
     </row>
     <row r="194">
       <c r="A194" s="3" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E194" s="10" t="str">
         <f t="shared" si="1"/>
@@ -19566,16 +19536,16 @@
     </row>
     <row r="195">
       <c r="A195" s="3" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E195" s="10" t="str">
         <f t="shared" si="1"/>
@@ -19594,16 +19564,16 @@
     </row>
     <row r="196">
       <c r="A196" s="3" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E196" s="10" t="str">
         <f t="shared" si="1"/>
@@ -19622,16 +19592,16 @@
     </row>
     <row r="197">
       <c r="A197" s="3" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E197" s="10" t="str">
         <f t="shared" si="1"/>
@@ -19650,13 +19620,13 @@
     </row>
     <row r="198">
       <c r="A198" s="3" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="10" t="str">
@@ -19676,16 +19646,16 @@
     </row>
     <row r="199">
       <c r="A199" s="3" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E199" s="10" t="str">
         <f t="shared" si="1"/>
@@ -19704,13 +19674,13 @@
     </row>
     <row r="200">
       <c r="A200" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="10" t="str">
@@ -19730,13 +19700,13 @@
     </row>
     <row r="201">
       <c r="A201" s="3" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D201" s="4"/>
       <c r="E201" s="10" t="str">
@@ -19756,16 +19726,16 @@
     </row>
     <row r="202">
       <c r="A202" s="3" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E202" s="10" t="str">
         <f t="shared" si="1"/>
@@ -19784,16 +19754,16 @@
     </row>
     <row r="203">
       <c r="A203" s="3" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E203" s="10" t="str">
         <f t="shared" si="1"/>
@@ -19812,16 +19782,16 @@
     </row>
     <row r="204">
       <c r="A204" s="3" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="E204" s="10" t="str">
         <f t="shared" si="1"/>
@@ -19840,13 +19810,13 @@
     </row>
     <row r="205">
       <c r="A205" s="3" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="10" t="str">
@@ -19866,16 +19836,16 @@
     </row>
     <row r="206">
       <c r="A206" s="3" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E206" s="10" t="str">
         <f t="shared" si="1"/>
@@ -19894,16 +19864,16 @@
     </row>
     <row r="207">
       <c r="A207" s="3" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E207" s="10" t="str">
         <f t="shared" si="1"/>
@@ -19922,13 +19892,13 @@
     </row>
     <row r="208">
       <c r="A208" s="3" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="10" t="str">
@@ -19948,13 +19918,13 @@
     </row>
     <row r="209">
       <c r="A209" s="3" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D209" s="4"/>
       <c r="E209" s="10" t="str">
@@ -19974,13 +19944,13 @@
     </row>
     <row r="210">
       <c r="A210" s="3" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D210" s="4"/>
       <c r="E210" s="10" t="str">
@@ -20000,13 +19970,13 @@
     </row>
     <row r="211">
       <c r="A211" s="3" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="10" t="str">
@@ -20026,16 +19996,16 @@
     </row>
     <row r="212">
       <c r="A212" s="3" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E212" s="10" t="str">
         <f t="shared" si="1"/>
@@ -20054,13 +20024,13 @@
     </row>
     <row r="213">
       <c r="A213" s="3" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D213" s="4"/>
       <c r="E213" s="10" t="str">
@@ -20080,13 +20050,13 @@
     </row>
     <row r="214">
       <c r="A214" s="3" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="10" t="str">
@@ -20106,16 +20076,16 @@
     </row>
     <row r="215">
       <c r="A215" s="3" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E215" s="10" t="str">
         <f t="shared" si="1"/>
@@ -20134,13 +20104,13 @@
     </row>
     <row r="216">
       <c r="A216" s="3" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216" s="10" t="str">
@@ -20160,13 +20130,13 @@
     </row>
     <row r="217">
       <c r="A217" s="3" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="10" t="str">
@@ -20186,16 +20156,16 @@
     </row>
     <row r="218">
       <c r="A218" s="3" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E218" s="10" t="str">
         <f t="shared" si="1"/>
@@ -20214,16 +20184,16 @@
     </row>
     <row r="219">
       <c r="A219" s="3" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E219" s="10" t="str">
         <f t="shared" si="1"/>
@@ -20242,13 +20212,13 @@
     </row>
     <row r="220">
       <c r="A220" s="3" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="10" t="str">
@@ -20268,13 +20238,13 @@
     </row>
     <row r="221">
       <c r="A221" s="3" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D221" s="4"/>
       <c r="E221" s="10" t="str">
@@ -20294,16 +20264,16 @@
     </row>
     <row r="222">
       <c r="A222" s="3" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="E222" s="10" t="str">
         <f t="shared" si="1"/>
@@ -20322,13 +20292,13 @@
     </row>
     <row r="223">
       <c r="A223" s="3" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="10" t="str">
@@ -20348,16 +20318,16 @@
     </row>
     <row r="224">
       <c r="A224" s="3" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="E224" s="10" t="str">
         <f t="shared" si="1"/>
@@ -20376,16 +20346,16 @@
     </row>
     <row r="225">
       <c r="A225" s="3" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="E225" s="10" t="str">
         <f t="shared" si="1"/>
@@ -20404,16 +20374,16 @@
     </row>
     <row r="226">
       <c r="A226" s="3" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="E226" s="10" t="str">
         <f t="shared" si="1"/>
@@ -20432,13 +20402,13 @@
     </row>
     <row r="227">
       <c r="A227" s="3" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D227" s="4"/>
       <c r="E227" s="10" t="str">
@@ -20458,13 +20428,13 @@
     </row>
     <row r="228">
       <c r="A228" s="3" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D228" s="4"/>
       <c r="E228" s="10" t="str">
@@ -20484,16 +20454,16 @@
     </row>
     <row r="229">
       <c r="A229" s="3" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="E229" s="10" t="str">
         <f t="shared" si="1"/>
@@ -20512,16 +20482,16 @@
     </row>
     <row r="230">
       <c r="A230" s="3" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="E230" s="10" t="str">
         <f t="shared" si="1"/>
@@ -20540,13 +20510,13 @@
     </row>
     <row r="231">
       <c r="A231" s="3" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D231" s="4"/>
       <c r="E231" s="10" t="str">
@@ -20566,13 +20536,13 @@
     </row>
     <row r="232">
       <c r="A232" s="3" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D232" s="4"/>
       <c r="E232" s="10" t="str">
@@ -20592,16 +20562,16 @@
     </row>
     <row r="233">
       <c r="A233" s="3" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="E233" s="10" t="str">
         <f t="shared" si="1"/>
@@ -20620,13 +20590,13 @@
     </row>
     <row r="234">
       <c r="A234" s="3" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D234" s="4"/>
       <c r="E234" s="10" t="str">
@@ -20646,13 +20616,13 @@
     </row>
     <row r="235">
       <c r="A235" s="3" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D235" s="4"/>
       <c r="E235" s="10" t="str">
@@ -20672,13 +20642,13 @@
     </row>
     <row r="236">
       <c r="A236" s="3" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D236" s="4"/>
       <c r="E236" s="10" t="str">
@@ -20698,13 +20668,13 @@
     </row>
     <row r="237">
       <c r="A237" s="3" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D237" s="4"/>
       <c r="E237" s="10" t="str">
@@ -20724,13 +20694,13 @@
     </row>
     <row r="238">
       <c r="A238" s="3" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D238" s="4"/>
       <c r="E238" s="10" t="str">
@@ -20750,13 +20720,13 @@
     </row>
     <row r="239">
       <c r="A239" s="3" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D239" s="4"/>
       <c r="E239" s="10" t="str">
@@ -20776,13 +20746,13 @@
     </row>
     <row r="240">
       <c r="A240" s="3" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D240" s="4"/>
       <c r="E240" s="10" t="str">
@@ -20802,13 +20772,13 @@
     </row>
     <row r="241">
       <c r="A241" s="3" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D241" s="4"/>
       <c r="E241" s="10" t="str">
@@ -20828,13 +20798,13 @@
     </row>
     <row r="242">
       <c r="A242" s="3" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D242" s="4"/>
       <c r="E242" s="10" t="str">
@@ -20854,13 +20824,13 @@
     </row>
     <row r="243">
       <c r="A243" s="3" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="10" t="str">
@@ -20880,13 +20850,13 @@
     </row>
     <row r="244">
       <c r="A244" s="3" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D244" s="4"/>
       <c r="E244" s="10" t="str">
@@ -20906,13 +20876,13 @@
     </row>
     <row r="245">
       <c r="A245" s="3" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D245" s="4"/>
       <c r="E245" s="10" t="str">
@@ -20932,13 +20902,13 @@
     </row>
     <row r="246">
       <c r="A246" s="3" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D246" s="4"/>
       <c r="E246" s="10" t="str">
@@ -20958,13 +20928,13 @@
     </row>
     <row r="247">
       <c r="A247" s="3" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D247" s="4"/>
       <c r="E247" s="10" t="str">
@@ -20984,16 +20954,16 @@
     </row>
     <row r="248">
       <c r="A248" s="3" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E248" s="10" t="str">
         <f t="shared" si="1"/>
@@ -21012,13 +20982,13 @@
     </row>
     <row r="249">
       <c r="A249" s="3" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D249" s="4"/>
       <c r="E249" s="10" t="str">
@@ -21038,13 +21008,13 @@
     </row>
     <row r="250">
       <c r="A250" s="3" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D250" s="4"/>
       <c r="E250" s="10" t="str">
@@ -21064,13 +21034,13 @@
     </row>
     <row r="251">
       <c r="A251" s="3" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D251" s="4"/>
       <c r="E251" s="10" t="str">
@@ -21090,13 +21060,13 @@
     </row>
     <row r="252">
       <c r="A252" s="3" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D252" s="4"/>
       <c r="E252" s="10" t="str">
@@ -21116,13 +21086,13 @@
     </row>
     <row r="253">
       <c r="A253" s="3" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D253" s="4"/>
       <c r="E253" s="10" t="str">
@@ -21142,13 +21112,13 @@
     </row>
     <row r="254">
       <c r="A254" s="3" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D254" s="4"/>
       <c r="E254" s="10" t="str">
@@ -21168,13 +21138,13 @@
     </row>
     <row r="255">
       <c r="A255" s="3" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D255" s="4"/>
       <c r="E255" s="10" t="str">
@@ -21194,13 +21164,13 @@
     </row>
     <row r="256">
       <c r="A256" s="3" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D256" s="4"/>
       <c r="E256" s="10" t="str">
@@ -21220,16 +21190,16 @@
     </row>
     <row r="257">
       <c r="A257" s="3" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E257" s="10" t="str">
         <f t="shared" si="1"/>
@@ -21248,13 +21218,13 @@
     </row>
     <row r="258">
       <c r="A258" s="3" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D258" s="4"/>
       <c r="E258" s="10" t="str">
@@ -21274,13 +21244,13 @@
     </row>
     <row r="259">
       <c r="A259" s="3" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D259" s="4"/>
       <c r="E259" s="10" t="str">
@@ -21300,13 +21270,13 @@
     </row>
     <row r="260">
       <c r="A260" s="3" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D260" s="4"/>
       <c r="E260" s="10" t="str">
@@ -21326,13 +21296,13 @@
     </row>
     <row r="261">
       <c r="A261" s="3" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D261" s="4"/>
       <c r="E261" s="10" t="str">
@@ -21352,13 +21322,13 @@
     </row>
     <row r="262">
       <c r="A262" s="3" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D262" s="4"/>
       <c r="E262" s="10" t="str">
@@ -21378,13 +21348,13 @@
     </row>
     <row r="263">
       <c r="A263" s="3" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D263" s="4"/>
       <c r="E263" s="10" t="str">
@@ -21404,13 +21374,13 @@
     </row>
     <row r="264">
       <c r="A264" s="3" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D264" s="4"/>
       <c r="E264" s="10" t="str">
@@ -21430,13 +21400,13 @@
     </row>
     <row r="265">
       <c r="A265" s="3" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D265" s="4"/>
       <c r="E265" s="10" t="str">
@@ -21456,13 +21426,13 @@
     </row>
     <row r="266">
       <c r="A266" s="3" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D266" s="4"/>
       <c r="E266" s="10" t="str">
@@ -21482,13 +21452,13 @@
     </row>
     <row r="267">
       <c r="A267" s="3" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D267" s="4"/>
       <c r="E267" s="10" t="str">
@@ -21508,13 +21478,13 @@
     </row>
     <row r="268">
       <c r="A268" s="3" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D268" s="4"/>
       <c r="E268" s="10" t="str">
@@ -21534,13 +21504,13 @@
     </row>
     <row r="269">
       <c r="A269" s="3" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D269" s="4"/>
       <c r="E269" s="10" t="str">
@@ -21560,13 +21530,13 @@
     </row>
     <row r="270">
       <c r="A270" s="3" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D270" s="4"/>
       <c r="E270" s="10" t="str">
@@ -21586,13 +21556,13 @@
     </row>
     <row r="271">
       <c r="A271" s="3" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D271" s="4"/>
       <c r="E271" s="10" t="str">
@@ -21612,13 +21582,13 @@
     </row>
     <row r="272">
       <c r="A272" s="3" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D272" s="4"/>
       <c r="E272" s="10" t="str">
@@ -21638,13 +21608,13 @@
     </row>
     <row r="273">
       <c r="A273" s="3" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D273" s="4"/>
       <c r="E273" s="10" t="str">
@@ -21664,13 +21634,13 @@
     </row>
     <row r="274">
       <c r="A274" s="3" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D274" s="4"/>
       <c r="E274" s="10" t="str">
@@ -21690,13 +21660,13 @@
     </row>
     <row r="275">
       <c r="A275" s="3" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D275" s="4"/>
       <c r="E275" s="10" t="str">
@@ -21716,13 +21686,13 @@
     </row>
     <row r="276">
       <c r="A276" s="3" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D276" s="4"/>
       <c r="E276" s="10" t="str">
@@ -21742,13 +21712,13 @@
     </row>
     <row r="277">
       <c r="A277" s="3" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D277" s="4"/>
       <c r="E277" s="10" t="str">
@@ -21768,13 +21738,13 @@
     </row>
     <row r="278">
       <c r="A278" s="3" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D278" s="4"/>
       <c r="E278" s="10" t="str">
@@ -21794,16 +21764,16 @@
     </row>
     <row r="279">
       <c r="A279" s="3" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="E279" s="10" t="str">
         <f t="shared" si="1"/>
@@ -21822,13 +21792,13 @@
     </row>
     <row r="280">
       <c r="A280" s="3" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D280" s="4"/>
       <c r="E280" s="10" t="str">
@@ -21848,13 +21818,13 @@
     </row>
     <row r="281">
       <c r="A281" s="3" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D281" s="4"/>
       <c r="E281" s="10" t="str">
@@ -21874,13 +21844,13 @@
     </row>
     <row r="282">
       <c r="A282" s="3" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D282" s="4"/>
       <c r="E282" s="10" t="str">
@@ -21900,16 +21870,16 @@
     </row>
     <row r="283">
       <c r="A283" s="3" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="E283" s="10" t="str">
         <f t="shared" si="1"/>
@@ -21928,13 +21898,13 @@
     </row>
     <row r="284">
       <c r="A284" s="3" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D284" s="4"/>
       <c r="E284" s="10" t="str">
@@ -21954,13 +21924,13 @@
     </row>
     <row r="285">
       <c r="A285" s="3" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D285" s="4"/>
       <c r="E285" s="10" t="str">
@@ -21980,13 +21950,13 @@
     </row>
     <row r="286">
       <c r="A286" s="3" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D286" s="4"/>
       <c r="E286" s="10" t="str">
@@ -22006,13 +21976,13 @@
     </row>
     <row r="287">
       <c r="A287" s="3" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D287" s="4"/>
       <c r="E287" s="10" t="str">
@@ -22032,13 +22002,13 @@
     </row>
     <row r="288">
       <c r="A288" s="3" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D288" s="4"/>
       <c r="E288" s="10" t="str">
@@ -22058,13 +22028,13 @@
     </row>
     <row r="289">
       <c r="A289" s="3" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D289" s="4"/>
       <c r="E289" s="10" t="str">
@@ -22084,13 +22054,13 @@
     </row>
     <row r="290">
       <c r="A290" s="3" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D290" s="4"/>
       <c r="E290" s="10" t="str">
@@ -22110,16 +22080,16 @@
     </row>
     <row r="291">
       <c r="A291" s="3" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E291" s="10" t="str">
         <f t="shared" si="1"/>
@@ -22138,13 +22108,13 @@
     </row>
     <row r="292">
       <c r="A292" s="3" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D292" s="4"/>
       <c r="E292" s="10" t="str">
@@ -22164,13 +22134,13 @@
     </row>
     <row r="293">
       <c r="A293" s="3" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D293" s="4"/>
       <c r="E293" s="10" t="str">
@@ -22190,13 +22160,13 @@
     </row>
     <row r="294">
       <c r="A294" s="3" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D294" s="4"/>
       <c r="E294" s="10" t="str">
@@ -22216,13 +22186,13 @@
     </row>
     <row r="295">
       <c r="A295" s="3" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D295" s="4"/>
       <c r="E295" s="10" t="str">
@@ -22242,13 +22212,13 @@
     </row>
     <row r="296">
       <c r="A296" s="3" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D296" s="4"/>
       <c r="E296" s="10" t="str">
@@ -22268,16 +22238,16 @@
     </row>
     <row r="297">
       <c r="A297" s="3" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="E297" s="10" t="str">
         <f t="shared" si="1"/>
@@ -22296,13 +22266,13 @@
     </row>
     <row r="298">
       <c r="A298" s="3" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D298" s="4"/>
       <c r="E298" s="10" t="str">
@@ -22322,13 +22292,13 @@
     </row>
     <row r="299">
       <c r="A299" s="3" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D299" s="4"/>
       <c r="E299" s="10" t="str">
@@ -22348,13 +22318,13 @@
     </row>
     <row r="300">
       <c r="A300" s="3" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D300" s="4"/>
       <c r="E300" s="10" t="str">
@@ -22374,13 +22344,13 @@
     </row>
     <row r="301">
       <c r="A301" s="3" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D301" s="4"/>
       <c r="E301" s="10" t="str">
@@ -22400,13 +22370,13 @@
     </row>
     <row r="302">
       <c r="A302" s="3" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D302" s="4"/>
       <c r="E302" s="10" t="str">
@@ -22426,16 +22396,16 @@
     </row>
     <row r="303">
       <c r="A303" s="3" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="E303" s="10" t="str">
         <f t="shared" si="1"/>
@@ -22454,13 +22424,13 @@
     </row>
     <row r="304">
       <c r="A304" s="3" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D304" s="4"/>
       <c r="E304" s="10" t="str">
@@ -22480,13 +22450,13 @@
     </row>
     <row r="305">
       <c r="A305" s="3" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D305" s="4"/>
       <c r="E305" s="10" t="str">
@@ -22506,13 +22476,13 @@
     </row>
     <row r="306">
       <c r="A306" s="3" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D306" s="4"/>
       <c r="E306" s="10" t="str">
@@ -22532,13 +22502,13 @@
     </row>
     <row r="307">
       <c r="A307" s="3" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D307" s="4"/>
       <c r="E307" s="10" t="str">
@@ -22558,16 +22528,16 @@
     </row>
     <row r="308">
       <c r="A308" s="3" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="E308" s="10" t="str">
         <f t="shared" si="1"/>
@@ -22586,13 +22556,13 @@
     </row>
     <row r="309">
       <c r="A309" s="3" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D309" s="4"/>
       <c r="E309" s="10" t="str">
@@ -22612,13 +22582,13 @@
     </row>
     <row r="310">
       <c r="A310" s="3" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D310" s="4"/>
       <c r="E310" s="10" t="str">
@@ -22638,13 +22608,13 @@
     </row>
     <row r="311">
       <c r="A311" s="3" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D311" s="4"/>
       <c r="E311" s="10" t="str">
@@ -22664,13 +22634,13 @@
     </row>
     <row r="312">
       <c r="A312" s="3" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D312" s="4"/>
       <c r="E312" s="10" t="str">
@@ -22690,16 +22660,16 @@
     </row>
     <row r="313">
       <c r="A313" s="3" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="E313" s="10" t="str">
         <f t="shared" si="1"/>
@@ -22718,13 +22688,13 @@
     </row>
     <row r="314">
       <c r="A314" s="3" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D314" s="4"/>
       <c r="E314" s="10" t="str">
@@ -22744,13 +22714,13 @@
     </row>
     <row r="315">
       <c r="A315" s="3" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D315" s="4"/>
       <c r="E315" s="10" t="str">
@@ -22770,16 +22740,16 @@
     </row>
     <row r="316">
       <c r="A316" s="3" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E316" s="10" t="str">
         <f t="shared" si="1"/>
@@ -22798,13 +22768,13 @@
     </row>
     <row r="317">
       <c r="A317" s="3" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D317" s="4"/>
       <c r="E317" s="10" t="str">
@@ -22824,13 +22794,13 @@
     </row>
     <row r="318">
       <c r="A318" s="3" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D318" s="4"/>
       <c r="E318" s="10" t="str">
@@ -22850,13 +22820,13 @@
     </row>
     <row r="319">
       <c r="A319" s="3" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D319" s="4"/>
       <c r="E319" s="10" t="str">
@@ -22876,13 +22846,13 @@
     </row>
     <row r="320">
       <c r="A320" s="3" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D320" s="4"/>
       <c r="E320" s="10" t="str">
@@ -22902,16 +22872,16 @@
     </row>
     <row r="321">
       <c r="A321" s="3" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="E321" s="10" t="str">
         <f t="shared" si="1"/>
@@ -22930,16 +22900,16 @@
     </row>
     <row r="322">
       <c r="A322" s="3" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E322" s="10" t="str">
         <f t="shared" si="1"/>
@@ -22958,16 +22928,16 @@
     </row>
     <row r="323">
       <c r="A323" s="3" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E323" s="10" t="str">
         <f t="shared" si="1"/>
@@ -22986,13 +22956,13 @@
     </row>
     <row r="324">
       <c r="A324" s="3" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D324" s="4"/>
       <c r="E324" s="10" t="str">
@@ -23012,13 +22982,13 @@
     </row>
     <row r="325">
       <c r="A325" s="3" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D325" s="4"/>
       <c r="E325" s="10" t="str">
@@ -23038,13 +23008,13 @@
     </row>
     <row r="326">
       <c r="A326" s="3" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D326" s="4"/>
       <c r="E326" s="10" t="str">
@@ -23064,13 +23034,13 @@
     </row>
     <row r="327">
       <c r="A327" s="3" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D327" s="4"/>
       <c r="E327" s="10" t="str">
@@ -23090,13 +23060,13 @@
     </row>
     <row r="328">
       <c r="A328" s="3" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D328" s="4"/>
       <c r="E328" s="10" t="str">
@@ -23116,13 +23086,13 @@
     </row>
     <row r="329">
       <c r="A329" s="3" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D329" s="4"/>
       <c r="E329" s="10" t="str">
@@ -23142,13 +23112,13 @@
     </row>
     <row r="330">
       <c r="A330" s="3" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D330" s="4"/>
       <c r="E330" s="10" t="str">
@@ -23168,13 +23138,13 @@
     </row>
     <row r="331">
       <c r="A331" s="3" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D331" s="4"/>
       <c r="E331" s="10" t="str">
@@ -23194,16 +23164,16 @@
     </row>
     <row r="332">
       <c r="A332" s="3" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="E332" s="10" t="str">
         <f t="shared" si="1"/>
@@ -23222,13 +23192,13 @@
     </row>
     <row r="333">
       <c r="A333" s="3" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="C333" s="12" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D333" s="4"/>
       <c r="E333" s="10" t="str">
@@ -23248,13 +23218,13 @@
     </row>
     <row r="334">
       <c r="A334" s="3" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D334" s="4"/>
       <c r="E334" s="10" t="str">
@@ -23274,13 +23244,13 @@
     </row>
     <row r="335">
       <c r="A335" s="3" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="C335" s="12" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D335" s="4"/>
       <c r="E335" s="10" t="str">
@@ -23300,13 +23270,13 @@
     </row>
     <row r="336">
       <c r="A336" s="3" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D336" s="4"/>
       <c r="E336" s="10" t="str">
@@ -23326,13 +23296,13 @@
     </row>
     <row r="337">
       <c r="A337" s="3" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D337" s="4"/>
       <c r="E337" s="10" t="str">
@@ -23352,13 +23322,13 @@
     </row>
     <row r="338">
       <c r="A338" s="3" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D338" s="4"/>
       <c r="E338" s="10" t="str">
@@ -23378,13 +23348,13 @@
     </row>
     <row r="339">
       <c r="A339" s="3" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D339" s="4"/>
       <c r="E339" s="10" t="str">
@@ -23404,13 +23374,13 @@
     </row>
     <row r="340">
       <c r="A340" s="3" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D340" s="4"/>
       <c r="E340" s="10" t="str">
@@ -23430,13 +23400,13 @@
     </row>
     <row r="341">
       <c r="A341" s="3" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D341" s="4"/>
       <c r="E341" s="10" t="str">
@@ -23456,18 +23426,18 @@
     </row>
     <row r="342">
       <c r="A342" s="3" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D342" s="4"/>
       <c r="E342" s="10"/>
       <c r="F342" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G342" s="10" t="str">
         <f t="array" ref="G342">IF(ISBLANK(F342), " ", XLOOKUP(F342,Arguments!B:B,Arguments!A:A))</f>
@@ -23479,18 +23449,18 @@
     </row>
     <row r="343">
       <c r="A343" s="3" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D343" s="4"/>
       <c r="E343" s="10"/>
       <c r="F343" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G343" s="10" t="str">
         <f t="array" ref="G343">IF(ISBLANK(F343), " ", XLOOKUP(F343,Arguments!B:B,Arguments!A:A))</f>
@@ -23502,13 +23472,13 @@
     </row>
     <row r="344">
       <c r="A344" s="3" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D344" s="4"/>
       <c r="E344" s="10"/>
@@ -23525,18 +23495,18 @@
     </row>
     <row r="345">
       <c r="A345" s="3" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D345" s="4"/>
       <c r="E345" s="10"/>
       <c r="F345" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G345" s="10" t="str">
         <f t="array" ref="G345">IF(ISBLANK(F345), " ", XLOOKUP(F345,Arguments!B:B,Arguments!A:A))</f>
@@ -23548,18 +23518,18 @@
     </row>
     <row r="346">
       <c r="A346" s="3" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D346" s="4"/>
       <c r="E346" s="10"/>
       <c r="F346" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G346" s="10" t="str">
         <f t="array" ref="G346">IF(ISBLANK(F346), " ", XLOOKUP(F346,Arguments!B:B,Arguments!A:A))</f>
@@ -35810,30 +35780,30 @@
         <v>3</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -35842,10 +35812,10 @@
         <v>40.0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="G2" s="17">
         <v>45629.0</v>
@@ -35853,10 +35823,10 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>179</v>
@@ -35865,10 +35835,10 @@
         <v>50.0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="G3" s="17">
         <v>45696.0</v>
@@ -35876,125 +35846,125 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="D4" s="3">
         <v>50.0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
